--- a/data/hotels_by_city/Houston/Houston_shard_425.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_425.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="537">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g30163-d1657390-Reviews-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-La-Quinta-Inn-Suites-Alvin.h3226364.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1489 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r599705589-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>30163</t>
+  </si>
+  <si>
+    <t>1657390</t>
+  </si>
+  <si>
+    <t>599705589</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Leisure/ business stay</t>
+  </si>
+  <si>
+    <t>The hote was very nice well maintained, staff was very friendly. But due to undergoing construction i believe it interfered with the water pressure in the shower. Rooms were very clean and nice looking , bed was very comfy. I loved the high ceilings. Other than the water pressure I have no complaints at all. I will stay again. Hopefully all construction will be done when I do.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r599755866-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>599755866</t>
+  </si>
+  <si>
+    <t>Visit to Alvin</t>
+  </si>
+  <si>
+    <t>Motel was clean, near our appointment location, and located on major roadway through Alvin.  Staff was helpful and provided personnel item (toothbrush) we needed.  Room was clean and comfortable. We will stay there again on our next trip to Alvin.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r587542428-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>587542428</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>Peaceful Stay</t>
+  </si>
+  <si>
+    <t>The hotel was new and very nice inside and out.  Was great that it's pet friendly.  We would stay there again.  The room was very clean.  The room seemed to be sound proof, we had no noise from outside or the hallway, no sound from above us.  It was a very peaceful stay.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r585000060-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>585000060</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Convenient location and great staff</t>
+  </si>
+  <si>
+    <t>Our family of four stayed here to attend a graduation.  The hotel’s location near 6 and 528 made it the perfect place for us.  The staff was very friendly and helpful.  The breakfast was plentiful and good quality.  We are normally a Hampton Inn Family, but this stay may have converted us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager A, General Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Our family of four stayed here to attend a graduation.  The hotel’s location near 6 and 528 made it the perfect place for us.  The staff was very friendly and helpful.  The breakfast was plentiful and good quality.  We are normally a Hampton Inn Family, but this stay may have converted us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r579579238-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>579579238</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>LaQuinta</t>
+  </si>
+  <si>
+    <t>I had an excellent stay and recommend this motel to friends and family. Staff was friendly and knowledgeable. The room was more than I expected. The price for the room was reasonable and I do plan to stay the again.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r577998830-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>577998830</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r551879415-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>551879415</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r549653016-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>549653016</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r535228144-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>535228144</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Rude receptionist</t>
+  </si>
+  <si>
+    <t>Traveling into the area where most of the hotels are booked solid with displaced storm victims and workers. We were needing to arrive early to attend a funeral and had called and asked if we could check in early and were asked what time we would be arriving and was told it would not be a problem. Shortly after I received a text confirmation that my room was ready. Upon arrival the young lady told me the room was not ready and she had no idea who I spoke with and that she was the only one on duty and had only stepped out for a few minutes and she had no idea why the company sends out those text messages and we shouldn’t pay any attention to them. We left the property after leaving her our phone number and five minutes later she called saying our room would be ready in ten minutes. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Manager A, Front Office Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Traveling into the area where most of the hotels are booked solid with displaced storm victims and workers. We were needing to arrive early to attend a funeral and had called and asked if we could check in early and were asked what time we would be arriving and was told it would not be a problem. Shortly after I received a text confirmation that my room was ready. Upon arrival the young lady told me the room was not ready and she had no idea who I spoke with and that she was the only one on duty and had only stepped out for a few minutes and she had no idea why the company sends out those text messages and we shouldn’t pay any attention to them. We left the property after leaving her our phone number and five minutes later she called saying our room would be ready in ten minutes. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r508567940-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>508567940</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Boy how things have changed</t>
+  </si>
+  <si>
+    <t>Everything but management was fine. Staff at front desk helpful and friendly. Watch your charge card statement.  Might charge you for a stolen pillow.  This is not how to treat longtime La quinta rewards members. 50 dollar charge for pillows.  Stayed here 4 times before ,never again.  Manager would not even call me back.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r506954052-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>506954052</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Gluten-free guest satisfied!</t>
+  </si>
+  <si>
+    <t>Being celiac, I always travel prepared with my own food, which I did on this trip.  However, LaQuinta's breakfast assortment is quite adequate for those who cannot tolerate gluten -- eggs, bacon, sausage, yogurt, brand-name Cheerios, juice and coffee.  I had brought my own cereal and gluten-free bread and made toast since I cannot eat the wonderful muffins, sweet rolls, biscuits and bagels on the buffet.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager A, Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Being celiac, I always travel prepared with my own food, which I did on this trip.  However, LaQuinta's breakfast assortment is quite adequate for those who cannot tolerate gluten -- eggs, bacon, sausage, yogurt, brand-name Cheerios, juice and coffee.  I had brought my own cereal and gluten-free bread and made toast since I cannot eat the wonderful muffins, sweet rolls, biscuits and bagels on the buffet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r504540923-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>504540923</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>LaQuinta Alvin outstanding</t>
+  </si>
+  <si>
+    <t>Comfortable, clean lobby and common areas. Good breakfast choices. The breakfast room was a little small, but not an issue. Compared to local options, the LaQuinta was a good value. Staff friendly, and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfortable, clean lobby and common areas. Good breakfast choices. The breakfast room was a little small, but not an issue. Compared to local options, the LaQuinta was a good value. Staff friendly, and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r495448289-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>495448289</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Very clean and friendly</t>
+  </si>
+  <si>
+    <t>Very easy to get to. Great for dogs have a field in the front. Front desk people were very polite. The rooms were clean. Full breakfast selection, even waffles in the shape of state of Texas. Even had complentary cookies! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Manager A, Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Very easy to get to. Great for dogs have a field in the front. Front desk people were very polite. The rooms were clean. Full breakfast selection, even waffles in the shape of state of Texas. Even had complentary cookies! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r492224699-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>492224699</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Dog hair in room</t>
+  </si>
+  <si>
+    <t>The building was old but the property was well maintained. The staff was very friendly and attentive. The room appeared ok at first. In the evening everlasting of us noticed whit dog hair stuck on our socks. Later we notice a 3 foot patch of dog hair between the beds. It was really disgusting and the room was obviously not vacuumed. The breakfast selection was good and the food was good. The dog hair was too much I am never staying at this location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager A, Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded June 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2017</t>
+  </si>
+  <si>
+    <t>The building was old but the property was well maintained. The staff was very friendly and attentive. The room appeared ok at first. In the evening everlasting of us noticed whit dog hair stuck on our socks. Later we notice a 3 foot patch of dog hair between the beds. It was really disgusting and the room was obviously not vacuumed. The breakfast selection was good and the food was good. The dog hair was too much I am never staying at this location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r490479468-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>490479468</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Great Night In Alvin</t>
+  </si>
+  <si>
+    <t>My family and I were in town for a graduation, we booked this hotel and it was great.  The room was nice, hotel was very clean and well kept.  My kids and I used the pool and hot tub.  The beds were super comfy and we all slept well.  The breakfast in the morning was very enjoyable for everyone, who doesn't love the waffle maker!!  I did not have pets, but it is a pet friendly hotel...never heard much from any animals, would've never known.  Overall, we enjoyed our stay here and would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I were in town for a graduation, we booked this hotel and it was great.  The room was nice, hotel was very clean and well kept.  My kids and I used the pool and hot tub.  The beds were super comfy and we all slept well.  The breakfast in the morning was very enjoyable for everyone, who doesn't love the waffle maker!!  I did not have pets, but it is a pet friendly hotel...never heard much from any animals, would've never known.  Overall, we enjoyed our stay here and would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r464834245-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>464834245</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Good choice</t>
+  </si>
+  <si>
+    <t>Really glad I stayed here. The staff is helpful and hospitable. I was traveling with my dogs and stayed in a first-floor room near the side door, making it easy to take them out for a break. My large room was immaculate, bed comfy, bathroom spotless, nice shower. Will stay here again next time I'm in Alvin.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r465978645-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>465978645</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>nice clean dog friendly place</t>
+  </si>
+  <si>
+    <t>Was there for a week on training with police k-9 and all employees were very friendly. The staff had breakfast ready every morning. The staff was polite and had meeting rooms ready when promised. Due to hotel next door refurnishing and oil field workers being present at hotel with oversized vehicles, parking was limited.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r445769294-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>445769294</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>Hotel offers excellent amenities for the price.  Comfortable bed, clean room, friendly staff, and good breakfast all included. We got a good night sleep, and were ready to go in the morning.  The hotel is easy to locate, and convenient to the venue I was attending. My dog and I will definitely be back for another visit.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r432318389-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>432318389</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Our stay in Alvin LA Quinta 10-15-2016</t>
+  </si>
+  <si>
+    <t>Our room was clean, quiet, and pleasant. The room was also available for early check-in. The bed was comfortable and the breakfast the next morning was fine. We have stayed at this La Quinta in the past and will stay here again in the future.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r429436772-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>429436772</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Noisy Night</t>
+  </si>
+  <si>
+    <t>I almost rated this a 2 simply because it was so noisy.  I could hear people walking down the hallway (tile floor) and people talking outside in the hallway.  And make sure you don't get put in the room next to the Fitness Room!  I was supposed to get 2 queen beds in the room but when I got there they were full beds... certainly not queen as requested.  The beds were very hard and the pillows were firm as well.  I prefer softer beds &amp; pillows.If you have to stay in Alvin, you are better off choosing the Holiday Inn Express next door.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r427564230-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>427564230</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Very nice accommodation for the price.  I loved the suite rooms and the efficient service.  It could use a second elevator.  The check in service was fast and friendly.  The hotel is spacious and quiet.  Breakfast was adequate, but nothing to write home about.  Overall, I really liked this LaQuinta.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r405983630-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>405983630</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>It is a very good and clean place to stay. The staff is very helpful and nice. Amber as well all staff was very courteous at the front desk. Bright Side breakfast was good and clean. Our room was clean and comfortable and the beds were comfortable.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r405529993-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>405529993</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Consistent quality and comfort</t>
+  </si>
+  <si>
+    <t>Once again LaQuinta has not disappointed. This location was perfect for being able to travel to the Texas coast within 30 minutes, spend all day exploring Galveston and surrounding areas and back to hotel for peace and quiet. This location offers non high season rates as most hotels do located on the coast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r403193530-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>403193530</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Dirty due to apathy, unhealthy breakfast</t>
+  </si>
+  <si>
+    <t>We stayed here in the middle of July. No problem with the service I got. The check-in/check-out was fast. However, a couple of things that didn't work out well - 
+* During our stay we saw a few cockroaches lying dead on the floor in the front lobby (one was right on the way to reception near the rug). Not that I don't expect cockroaches in a for-hire lodge, however, what disgusted me personally is that these 2-3 dead critters were lying there for more than a day before at least the one near the rug disappeared. Note that I still am not sure if they were pushed under the rug or actually picked up and discarded in a trash can. So you see, why I have a hard time believing all these reviews about cleanliness.
+* To a somewhat lesser degree but still an issue is that their breakfast is truly unhealthy. That is to say that I could not find a single thing on the spread that did not have artificial flavors, or artificial sugar, or refined white flour, or hydrogenated fats in them other than of course, the apples and bananas. If this La Quinta is interested in fixing this particular problem - one place to start right away would be to start offering whole wheat bread in addition to the refined white flour breads. Also, how about offering whole milk as a choice? And, some real...We stayed here in the middle of July. No problem with the service I got. The check-in/check-out was fast. However, a couple of things that didn't work out well - * During our stay we saw a few cockroaches lying dead on the floor in the front lobby (one was right on the way to reception near the rug). Not that I don't expect cockroaches in a for-hire lodge, however, what disgusted me personally is that these 2-3 dead critters were lying there for more than a day before at least the one near the rug disappeared. Note that I still am not sure if they were pushed under the rug or actually picked up and discarded in a trash can. So you see, why I have a hard time believing all these reviews about cleanliness.* To a somewhat lesser degree but still an issue is that their breakfast is truly unhealthy. That is to say that I could not find a single thing on the spread that did not have artificial flavors, or artificial sugar, or refined white flour, or hydrogenated fats in them other than of course, the apples and bananas. If this La Quinta is interested in fixing this particular problem - one place to start right away would be to start offering whole wheat bread in addition to the refined white flour breads. Also, how about offering whole milk as a choice? And, some real butter spread? I have stayed at other similar lodges before, but this one tops in the most-unhealthy-continental-breakfast-at-a-hotel category. Also, the lady replenishing breakfast seemed a bit slow in doing so. Sorry to be so critical but I want to be honest with my feedback. Finally, let me close the review with something positive. The housekeeping did offer extra towels and napkins for our party. So that was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager A, Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here in the middle of July. No problem with the service I got. The check-in/check-out was fast. However, a couple of things that didn't work out well - 
+* During our stay we saw a few cockroaches lying dead on the floor in the front lobby (one was right on the way to reception near the rug). Not that I don't expect cockroaches in a for-hire lodge, however, what disgusted me personally is that these 2-3 dead critters were lying there for more than a day before at least the one near the rug disappeared. Note that I still am not sure if they were pushed under the rug or actually picked up and discarded in a trash can. So you see, why I have a hard time believing all these reviews about cleanliness.
+* To a somewhat lesser degree but still an issue is that their breakfast is truly unhealthy. That is to say that I could not find a single thing on the spread that did not have artificial flavors, or artificial sugar, or refined white flour, or hydrogenated fats in them other than of course, the apples and bananas. If this La Quinta is interested in fixing this particular problem - one place to start right away would be to start offering whole wheat bread in addition to the refined white flour breads. Also, how about offering whole milk as a choice? And, some real...We stayed here in the middle of July. No problem with the service I got. The check-in/check-out was fast. However, a couple of things that didn't work out well - * During our stay we saw a few cockroaches lying dead on the floor in the front lobby (one was right on the way to reception near the rug). Not that I don't expect cockroaches in a for-hire lodge, however, what disgusted me personally is that these 2-3 dead critters were lying there for more than a day before at least the one near the rug disappeared. Note that I still am not sure if they were pushed under the rug or actually picked up and discarded in a trash can. So you see, why I have a hard time believing all these reviews about cleanliness.* To a somewhat lesser degree but still an issue is that their breakfast is truly unhealthy. That is to say that I could not find a single thing on the spread that did not have artificial flavors, or artificial sugar, or refined white flour, or hydrogenated fats in them other than of course, the apples and bananas. If this La Quinta is interested in fixing this particular problem - one place to start right away would be to start offering whole wheat bread in addition to the refined white flour breads. Also, how about offering whole milk as a choice? And, some real butter spread? I have stayed at other similar lodges before, but this one tops in the most-unhealthy-continental-breakfast-at-a-hotel category. Also, the lady replenishing breakfast seemed a bit slow in doing so. Sorry to be so critical but I want to be honest with my feedback. Finally, let me close the review with something positive. The housekeeping did offer extra towels and napkins for our party. So that was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r399792441-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>399792441</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Very good stay!</t>
+  </si>
+  <si>
+    <t>We came into Alvin the night before our son's  wedding in  Galveston. The weather was bad and our drive into the area was stressful. We have stayed at La Quinta before, but this particular location was great. Check-in great and the facility very nice. Rooms here are as nice as other hotels that cost  2-3 times as much. Thoroughly satisfied and pleased. Staff was pleasant and professional. Great Job!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r398574341-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>398574341</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Biker Rally</t>
+  </si>
+  <si>
+    <t>Went to stay here and the manager was the most rudest one i ever met. I dont like housekeepers coming in my room when i have my furbabies with me. I had a new puppy with me and it was hard to take 4 babies down at the same time. So i used pee pads to let them use. I cleaned my own room and changed my own sheets. The manager went up and found one smudge that i forgot on the floor as you go in. So if it a sin to clean your own room then i wont ever go back there.So therefore this is a bad motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager A, General Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Went to stay here and the manager was the most rudest one i ever met. I dont like housekeepers coming in my room when i have my furbabies with me. I had a new puppy with me and it was hard to take 4 babies down at the same time. So i used pee pads to let them use. I cleaned my own room and changed my own sheets. The manager went up and found one smudge that i forgot on the floor as you go in. So if it a sin to clean your own room then i wont ever go back there.So therefore this is a bad motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r392519470-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>392519470</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>One of my favorite LaQuintas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My company puts us in LaQuinta girls when we travel. This is one of the best LaQuintas I have stayed in. I would stay here if I was traveling for personal travel. The in room coffee pot actually makes about 3 cups of coffee. It's not those cheap little one cup units I usually get in LaQuintas. It is clean and quiet. The breakfast buffet has hot food selections. Be sure to grab a cookie in the evening at the front desk. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r380655402-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>380655402</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Good weekend - Just as expected.</t>
+  </si>
+  <si>
+    <t>We were in town to attend a wedding and visit friends.  We frequently chose a La Quinta property unless we know of a better offering.  This La Quinta was very nice.  The rooms were clean. Bathroom was exceptionally clean but both floor and shower need to be re-grouted as they make the floor and shower look sort of shabby.  The room was equipped with a de-humidifier to help control the humidity - a nice feature in the Gulf Coast.  The bed was a standard LQ model which my wife and I really like.The staff was very friendly.     This LQ offered a very nice breakfast that was much better in quality than some of the LQ properties we've used in the past year.  The staff kept the breakfast bar well stocked both days which was probably challenging since the place was sold out.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town to attend a wedding and visit friends.  We frequently chose a La Quinta property unless we know of a better offering.  This La Quinta was very nice.  The rooms were clean. Bathroom was exceptionally clean but both floor and shower need to be re-grouted as they make the floor and shower look sort of shabby.  The room was equipped with a de-humidifier to help control the humidity - a nice feature in the Gulf Coast.  The bed was a standard LQ model which my wife and I really like.The staff was very friendly.     This LQ offered a very nice breakfast that was much better in quality than some of the LQ properties we've used in the past year.  The staff kept the breakfast bar well stocked both days which was probably challenging since the place was sold out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r376236361-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>376236361</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Kelly Bill administrative assistant</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay very much. The staff is very friendly. We relaxed in the hot tub and energized in the work out room. The only suggestion I'd have is get a Kuerig for the room, their coffee pot was not impressive.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r374725800-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>374725800</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>This LaQuinta was a very nice place to stay!</t>
+  </si>
+  <si>
+    <t>I usually stay in places that my rate is below 100 a day because I travel constantly and pay my own expenses. I have 5 hotel/motel cards and from my point of view, this room should have been about $20.00 cheaper. I did use my previous points to get the price down which was very easy and convenient. Thank you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r363240325-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>363240325</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>160407-08</t>
+  </si>
+  <si>
+    <t>Price is a little high but it is the best hotel in Alvin.  I have stayed there numerous times for numerous reasons and have always been satisfied with the accommodations.  And the staff has always been very friendly and helpful with anything I have ever asked for.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager A, Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Price is a little high but it is the best hotel in Alvin.  I have stayed there numerous times for numerous reasons and have always been satisfied with the accommodations.  And the staff has always been very friendly and helpful with anything I have ever asked for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r357705760-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>357705760</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay lay weekend.. The staff was very friendly and welcoming! The facility was clean and housekeeping was very diligent in cleaning our room! The staff was very helpful which made our stay very easy and we were able to relax. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay lay weekend.. The staff was very friendly and welcoming! The facility was clean and housekeeping was very diligent in cleaning our room! The staff was very helpful which made our stay very easy and we were able to relax. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r351473499-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>351473499</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>business trip to Alvin</t>
+  </si>
+  <si>
+    <t>The hotel is modern.  The room was clean.  The staff was helpful.  The wifi was extremely slow.  I had arrived late so did not want to use wifi much.  The next morning I called the front desk and requested a router reboot, which they readily did.  For about 30 min the wifi was reasonably fast, but then resumed being extremely slow.  Other than poor wifi the hotel was very good.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r336999281-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>336999281</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Could improve</t>
+  </si>
+  <si>
+    <t>Had to wait for front desk clerk this am even Though she was sitting nearby at desk. Not paying attention and not friendly. Charged us two nights (not one) and have to wait up to two weeks for refund??  Excited to see cookies at desk but they were hard as a rock. Room was dark and desk was way around side of bed. Bathroom door opens away from beds (have to walk around to door to enter). Room was clean. Bathroom counter very small. No shampoo or conditioner. We kept trying to adjust heater but it stayed on same setting (said 60 but felt like 70). Breakfast was ok. I would try holiday inn express next door next time!  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager A, General Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded January 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2016</t>
+  </si>
+  <si>
+    <t>Had to wait for front desk clerk this am even Though she was sitting nearby at desk. Not paying attention and not friendly. Charged us two nights (not one) and have to wait up to two weeks for refund??  Excited to see cookies at desk but they were hard as a rock. Room was dark and desk was way around side of bed. Bathroom door opens away from beds (have to walk around to door to enter). Room was clean. Bathroom counter very small. No shampoo or conditioner. We kept trying to adjust heater but it stayed on same setting (said 60 but felt like 70). Breakfast was ok. I would try holiday inn express next door next time!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r336047821-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>336047821</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Easy stay &amp; very clean</t>
+  </si>
+  <si>
+    <t>We stayed in two rooms from December 25 to December 30. The facility is very clean.  I thought it was brand new, but it was already six years old.  Quite a positive commentary for the staff!  There was an issue with the TV which was promptly fixed.  The breakfast was great for that sort fare.  The staff was very friendly too!  I love that there are dehumidifiers in the rooms.  It is very conveniently located to things we were interested in, and it was easy to get on/off property. My only complaint/suggestion for this hotel would be to make sure that guests get a new make-up wipe every night, although I'm sure that if I had asked, I'd have gotten one. We would definitely stay here again if life brings us back to town. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We stayed in two rooms from December 25 to December 30. The facility is very clean.  I thought it was brand new, but it was already six years old.  Quite a positive commentary for the staff!  There was an issue with the TV which was promptly fixed.  The breakfast was great for that sort fare.  The staff was very friendly too!  I love that there are dehumidifiers in the rooms.  It is very conveniently located to things we were interested in, and it was easy to get on/off property. My only complaint/suggestion for this hotel would be to make sure that guests get a new make-up wipe every night, although I'm sure that if I had asked, I'd have gotten one. We would definitely stay here again if life brings us back to town. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r325860098-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>325860098</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I stayed here for pleasure for the bike rally. The breakfast buffet was great, rooms were cleaned and staff was nice. I would stay here again. For me it was a great location 30 miles from the rally and was nice little town. It was a quiet location and slept good, no noisy customers. Thank you for great stay</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r311474764-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>311474764</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Facility... see for yourself</t>
+  </si>
+  <si>
+    <t>Loved this hotel.   The facility was beautifully maintained; it was quiet, clean and very accessible.  The staff was awesome.  There was a large group of us traveling together, they took great care of us.  I would highly recommend this hotel.  Go see for yourself, you will be impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Dezzy P, Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Loved this hotel.   The facility was beautifully maintained; it was quiet, clean and very accessible.  The staff was awesome.  There was a large group of us traveling together, they took great care of us.  I would highly recommend this hotel.  Go see for yourself, you will be impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r304090653-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>304090653</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Family visits will always be here</t>
+  </si>
+  <si>
+    <t>This an excellent choice if in this area.  Super clean and very well maintained.  Staff is exceptionally friendly.  We will be back in November.  We always stay at La Quinta where our furry kids are always welcome.  This La Quinta is one of the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>This an excellent choice if in this area.  Super clean and very well maintained.  Staff is exceptionally friendly.  We will be back in November.  We always stay at La Quinta where our furry kids are always welcome.  This La Quinta is one of the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r304088807-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>304088807</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>Great Place to stay and Friendly Staff. No complaints at all. Stayed in the suite with jacuzzi tub and it was very nice on the first floor. No noise. The bathroom and shower was clean. Will definitely book again in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Place to stay and Friendly Staff. No complaints at all. Stayed in the suite with jacuzzi tub and it was very nice on the first floor. No noise. The bathroom and shower was clean. Will definitely book again in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r296216702-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>296216702</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Had a good stay except the dehumidifier filled and I had to empty each day and a light bulb was missing from the reading lamp.  Otherwise, the staff did very well. The food varied each morning giving a surprise to the diner.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dezzy P, Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2015</t>
+  </si>
+  <si>
+    <t>Had a good stay except the dehumidifier filled and I had to empty each day and a light bulb was missing from the reading lamp.  Otherwise, the staff did very well. The food varied each morning giving a surprise to the diner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r296216666-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>296216666</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Our air conditioner went out in our home in August in Texas with outside temps at 100+.  Call La Quinta in Alvin and we were able to get a suite at a very reasonable price, the hotel welcomed our two small dogs and made us feel like family.  I would recommend this hotel to all my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our air conditioner went out in our home in August in Texas with outside temps at 100+.  Call La Quinta in Alvin and we were able to get a suite at a very reasonable price, the hotel welcomed our two small dogs and made us feel like family.  I would recommend this hotel to all my friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r292355426-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>292355426</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Go Back Anytime</t>
+  </si>
+  <si>
+    <t>Stayed there last weekend when our airconditioning went out.  Rooms were well maintained.  Front desk staff was very knowledgeable and accomodating.  Would go back any time. The pet policy is another great asset!  We can bring them without going broke.  Hallways, rooms, everything was very well maintained.  Sure was comfortableMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Stayed there last weekend when our airconditioning went out.  Rooms were well maintained.  Front desk staff was very knowledgeable and accomodating.  Would go back any time. The pet policy is another great asset!  We can bring them without going broke.  Hallways, rooms, everything was very well maintained.  Sure was comfortableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r287503985-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>287503985</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stay at Laquinta almost exclusively when we travel.  We have found that the rooms are always clean with no cracks in the walls or broken amenities.  The breakfast had a great variety to even please our picky teenagers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Dezzy P, General Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>We stay at Laquinta almost exclusively when we travel.  We have found that the rooms are always clean with no cracks in the walls or broken amenities.  The breakfast had a great variety to even please our picky teenagers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r283465682-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>283465682</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Newer Hotel</t>
+  </si>
+  <si>
+    <t>Newer Hotel right in Alvin.  The facilities were very good, clean and the personal were very helpful.  We stayed several days and would go back anytime that we needed a hotel in the Alvin area.  The hotel is Pet Friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nizar K, General Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Newer Hotel right in Alvin.  The facilities were very good, clean and the personal were very helpful.  We stayed several days and would go back anytime that we needed a hotel in the Alvin area.  The hotel is Pet Friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r273554344-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>273554344</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Getting to be a regular thang</t>
+  </si>
+  <si>
+    <t>Our second stay at this hotel since December of 2014 because we have traveling pets. Still relatively new and cared for. Grass was long and the first floor rooms were unavailable (even though requested) for our ease of mini dachshund management. Front desk staff ( Dacey) was amazingly pleasant and helpful in lieu of hotel lacks. Breakfast certainly not winning any healthful awards, but they did have bananas. Visited hot tub and pool this time and both were excellent. Air conditioner cycling on and off interfered with our sleep pattern so not the most restful. Pillows are hard as a rock...all 6 of them! Alas, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Nizar K, General Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Our second stay at this hotel since December of 2014 because we have traveling pets. Still relatively new and cared for. Grass was long and the first floor rooms were unavailable (even though requested) for our ease of mini dachshund management. Front desk staff ( Dacey) was amazingly pleasant and helpful in lieu of hotel lacks. Breakfast certainly not winning any healthful awards, but they did have bananas. Visited hot tub and pool this time and both were excellent. Air conditioner cycling on and off interfered with our sleep pattern so not the most restful. Pillows are hard as a rock...all 6 of them! Alas, I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r266183526-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>266183526</t>
+  </si>
+  <si>
+    <t>04/11/2015</t>
+  </si>
+  <si>
+    <t>A fine La Quinta</t>
+  </si>
+  <si>
+    <t>We had to stay in a motel for a family reunion in Alvin over the Easter weekend.  This was an exceptionally nice La Quinta, in all respects-- front desk service, size and cleanliness of the room, breakfast, overall atmosphere.  I would definitely recommend this La Quinta.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Nizar K, General Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>We had to stay in a motel for a family reunion in Alvin over the Easter weekend.  This was an exceptionally nice La Quinta, in all respects-- front desk service, size and cleanliness of the room, breakfast, overall atmosphere.  I would definitely recommend this La Quinta.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r264383997-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>264383997</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Easter 2015 Stay</t>
+  </si>
+  <si>
+    <t>La Quinta Alvin,  TX is a dog-friendly hotel w/ accommodating staff and clean facilities.  They offer complimentary breakfast and had a non-denominational Easter service in one of their conference rooms.  My wife and I have stayed w/ them in the past and will do so again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>La Quinta Alvin,  TX is a dog-friendly hotel w/ accommodating staff and clean facilities.  They offer complimentary breakfast and had a non-denominational Easter service in one of their conference rooms.  My wife and I have stayed w/ them in the past and will do so again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r262022014-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>262022014</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>LaQuinta - Alvin, TX</t>
+  </si>
+  <si>
+    <t>I've been a LaQuinta rewards member since 2011 and usually stay at the LaQuinta in Webster, Texas.  However, I would recommend the LaQuinta in Alvin, Texas.  Very clean and quiet hotel.  Reservation was made on-line and I had no problem checking in upon arrival.  Friendly staff provided easy check-in and check-out during my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Nizar K, Manager at La Quinta Inn &amp; Suites Alvin, responded to this reviewResponded March 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2015</t>
+  </si>
+  <si>
+    <t>I've been a LaQuinta rewards member since 2011 and usually stay at the LaQuinta in Webster, Texas.  However, I would recommend the LaQuinta in Alvin, Texas.  Very clean and quiet hotel.  Reservation was made on-line and I had no problem checking in upon arrival.  Friendly staff provided easy check-in and check-out during my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r239755442-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>239755442</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>great place</t>
+  </si>
+  <si>
+    <t>The place was a great place to stay for the two nights. Only thing was the constant banging of what appeared to be the Headboard. I wasn't too happy with that after 1am. I also noticed that the morning breakfast was good, it could be better with maybe fresh fruit for the waffles. Also, the brand of the coffee could be changed to maybe Community Coffee.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r234826388-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>234826388</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>Good value suite</t>
+  </si>
+  <si>
+    <t>La Quinta is great because we get a two-room suite at a good price.  It's nice to sleep in one room and have the kids sleep in another.  This one was clean and well-run.  Breakfast is always good and good value with three kids.  I'd stay here again.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r229365134-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>229365134</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Standard hotel in Alvin</t>
+  </si>
+  <si>
+    <t>The highlight of the trip was Dacey at the front desk. We arrived late with a full luggage cart and child and when the elevator broke, he was able to find us a room on the ground floor. What a lifesaver. Recommend the suite for families, you'll appreciate the extra room. Only wish the TV rotated, made for an awkward angle lying on the bed.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r221916507-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>221916507</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Our Choice in South Houston Area</t>
+  </si>
+  <si>
+    <t>Location, amenities and staff make this La Quinta our choice for lodging when visiting the south Houston area.  We have never encountered any negative issues with this hotel and will return again and again.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r220574326-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>220574326</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Rude employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front desk receptionist had to finish her texting before she could check us in! House keepers will get in the elevator before you and make you have to wait because they have there cart with them and there just is not enough room. Where she should have let us go first, then go on the next one. Pool was very clean and nice. Rooms were nice. They must have all just been remodeled. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r218780386-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>218780386</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>not sure i would stay here again ,</t>
+  </si>
+  <si>
+    <t>lets start at beginning , making reservation I have No complint ! the guy was very polite , a good impression . I did not catch his name , however I DO know he has GINGER colored hair and is irish, we conversed about our heritage which was nice. when I got to hotel MR ginger was not on duty, sadly , a brunett fellow was, HE  was not friendly , scrutinized my license , as if I were a criminal , looking at it , then back at me, I do not look different than my license . 2nd I was told I could not have a requested room on 1st floor,  he claimed they were all booked, throughout the night of which I could not sleep , the hotel walls are thin, the bedding is awful, no big and fluffy  duvet , instead a worn out ugly thin bedspread! therefore I looked out my window thru the night , there were very few guest's, I do not understand why ?I could not have a room on 1st floor! next the SMELL!  the lobby smelled like cat pee ! it was pretty strong! I stay in quiet a few hotel"s and so I expect a certain standard, I have never had a sub standard LA QUINTA, this particular LA QUINTA  is not very old , I have stayed in " older LA QUINTA'S, with the old design, yet had...lets start at beginning , making reservation I have No complint ! the guy was very polite , a good impression . I did not catch his name , however I DO know he has GINGER colored hair and is irish, we conversed about our heritage which was nice. when I got to hotel MR ginger was not on duty, sadly , a brunett fellow was, HE  was not friendly , scrutinized my license , as if I were a criminal , looking at it , then back at me, I do not look different than my license . 2nd I was told I could not have a requested room on 1st floor,  he claimed they were all booked, throughout the night of which I could not sleep , the hotel walls are thin, the bedding is awful, no big and fluffy  duvet , instead a worn out ugly thin bedspread! therefore I looked out my window thru the night , there were very few guest's, I do not understand why ?I could not have a room on 1st floor! next the SMELL!  the lobby smelled like cat pee ! it was pretty strong! I stay in quiet a few hotel"s and so I expect a certain standard, I have never had a sub standard LA QUINTA, this particular LA QUINTA  is not very old , I have stayed in " older LA QUINTA'S, with the old design, yet had quality, fluffy clean duvet's, I did NOT hear my " neighbors"  I do not understand the detoriation of this hotel. I stayed there last month. The next time I need to stay in Alvin , I will stay next door at THE HOLIDAY INN EXPRESS. the only positive were the ginger haired fellow and the breakfast was delicious with everything one could want ! eggs , biscuit.s , bacon, gravy for biscuits, fresh fruit , but I cannot stay there just for the breakfast and a polite person on phoneMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>lets start at beginning , making reservation I have No complint ! the guy was very polite , a good impression . I did not catch his name , however I DO know he has GINGER colored hair and is irish, we conversed about our heritage which was nice. when I got to hotel MR ginger was not on duty, sadly , a brunett fellow was, HE  was not friendly , scrutinized my license , as if I were a criminal , looking at it , then back at me, I do not look different than my license . 2nd I was told I could not have a requested room on 1st floor,  he claimed they were all booked, throughout the night of which I could not sleep , the hotel walls are thin, the bedding is awful, no big and fluffy  duvet , instead a worn out ugly thin bedspread! therefore I looked out my window thru the night , there were very few guest's, I do not understand why ?I could not have a room on 1st floor! next the SMELL!  the lobby smelled like cat pee ! it was pretty strong! I stay in quiet a few hotel"s and so I expect a certain standard, I have never had a sub standard LA QUINTA, this particular LA QUINTA  is not very old , I have stayed in " older LA QUINTA'S, with the old design, yet had...lets start at beginning , making reservation I have No complint ! the guy was very polite , a good impression . I did not catch his name , however I DO know he has GINGER colored hair and is irish, we conversed about our heritage which was nice. when I got to hotel MR ginger was not on duty, sadly , a brunett fellow was, HE  was not friendly , scrutinized my license , as if I were a criminal , looking at it , then back at me, I do not look different than my license . 2nd I was told I could not have a requested room on 1st floor,  he claimed they were all booked, throughout the night of which I could not sleep , the hotel walls are thin, the bedding is awful, no big and fluffy  duvet , instead a worn out ugly thin bedspread! therefore I looked out my window thru the night , there were very few guest's, I do not understand why ?I could not have a room on 1st floor! next the SMELL!  the lobby smelled like cat pee ! it was pretty strong! I stay in quiet a few hotel"s and so I expect a certain standard, I have never had a sub standard LA QUINTA, this particular LA QUINTA  is not very old , I have stayed in " older LA QUINTA'S, with the old design, yet had quality, fluffy clean duvet's, I did NOT hear my " neighbors"  I do not understand the detoriation of this hotel. I stayed there last month. The next time I need to stay in Alvin , I will stay next door at THE HOLIDAY INN EXPRESS. the only positive were the ginger haired fellow and the breakfast was delicious with everything one could want ! eggs , biscuit.s , bacon, gravy for biscuits, fresh fruit , but I cannot stay there just for the breakfast and a polite person on phoneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r217444739-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>217444739</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Smelly</t>
+  </si>
+  <si>
+    <t>I will start my review off saying the staff was friendly and helpful...that is the only postive experience we had at this hotel.  When we checked in we were given room 119.  It had a smell and the ceiling fan did not work.  I notified the desk after one night--the desk clerk found another room for me...it smelled worse than the room we had..she spoke with the manager and upgraded me to another room...this one smelled of urine really bad.  We went out and came back they had finally found a room that did not smell but, my son had to sleep on the roll out sofa and it was near the air conditioner...which was very loud every time it came out...so he did not get much sleep..on top of all of those issues the sheets were very rough.  To top things off they do not serve decaf coffee at breakfast.  I picked this location after reading the review and looking at the pictures.  I thought it was a new hotel...it is not.  It is old--the minute you walk in it smells...  I would not return to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I will start my review off saying the staff was friendly and helpful...that is the only postive experience we had at this hotel.  When we checked in we were given room 119.  It had a smell and the ceiling fan did not work.  I notified the desk after one night--the desk clerk found another room for me...it smelled worse than the room we had..she spoke with the manager and upgraded me to another room...this one smelled of urine really bad.  We went out and came back they had finally found a room that did not smell but, my son had to sleep on the roll out sofa and it was near the air conditioner...which was very loud every time it came out...so he did not get much sleep..on top of all of those issues the sheets were very rough.  To top things off they do not serve decaf coffee at breakfast.  I picked this location after reading the review and looking at the pictures.  I thought it was a new hotel...it is not.  It is old--the minute you walk in it smells...  I would not return to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r214228829-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>214228829</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>trash on the breakfast table</t>
+  </si>
+  <si>
+    <t>was dirty and not taken care of.  food allover everywhere at breakfast and no one bothering to clean it up. will not stay there again.  hot tub was out  of order and had trash floating around. it really looked gross.  dirty pool towels  left strewn all around they were never picked up.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r210876602-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>210876602</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t>The gentleman at the counter was very friendly and helpful! He helped out when we called in for the reservation and new who were when we arrived.  Check in was fast!  Defiantly would stay again!  Rooms were clean, spacious, and comfortable.   They allow dogs, big plus for us!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r209347597-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>209347597</t>
+  </si>
+  <si>
+    <t>06/07/2014</t>
+  </si>
+  <si>
+    <t>Good week turned bad.</t>
+  </si>
+  <si>
+    <t>We checked in on a Tuesday. Staff was super nice, and we were upgraded to a bigger room on the 1st floor, very convenient(which we paid for) since we would be staying 6 days and 5 nights for business. Everything was perfect until Saturday when we were expected to check out. We told them no we had booked until Sunday. Well obviously someone made an error, so they told us they had only one room left and that every other room was booked and we had to move rooms. (The other guy with the company even had to go get a room at Best Western next door because of this "error." Anyways, the room the put us in was on the 3rd floor and we were in the room about 4 hours before we noticed that the air conditioner didn't work at ALL. The fan was blowing, but no cold air. So I called the front desk, he came up and checked it, and said he had a room available in case something like this happened... Hmmm, so what if someone else's air quit working what would you do? Anyway, he was very nice and moved us a few rooms down. An "upgraded" room he said. We got in the room which we are in now, and it smells so bad it makes me nauseous. The room is bigger because it's a handicapped room, and it smells like a porter...We checked in on a Tuesday. Staff was super nice, and we were upgraded to a bigger room on the 1st floor, very convenient(which we paid for) since we would be staying 6 days and 5 nights for business. Everything was perfect until Saturday when we were expected to check out. We told them no we had booked until Sunday. Well obviously someone made an error, so they told us they had only one room left and that every other room was booked and we had to move rooms. (The other guy with the company even had to go get a room at Best Western next door because of this "error." Anyways, the room the put us in was on the 3rd floor and we were in the room about 4 hours before we noticed that the air conditioner didn't work at ALL. The fan was blowing, but no cold air. So I called the front desk, he came up and checked it, and said he had a room available in case something like this happened... Hmmm, so what if someone else's air quit working what would you do? Anyway, he was very nice and moved us a few rooms down. An "upgraded" room he said. We got in the room which we are in now, and it smells so bad it makes me nauseous. The room is bigger because it's a handicapped room, and it smells like a porter pottie! It's almost midnight now, so I'm not going to bother with it, but I would not come back to this hotel, unless I got the one room we stayed in the majority of our trip which was room 122. Other things are the laundry rooms definitely needs upgrading...one of the washers are broken, and it was too crowed for just 2 washers and 2 dryers...old ones at that...people moving everyone's clothes to rush and wash theirs. And they need a whole new housekeeping crew. The rooms are poorly cleaned...I can't stress that enough. Lazy lazy housekeepers. The duvets are tattered, all of them in every room, and the pool and jacuzzi has a lot of bugs and dirt in the bottom. I will say that the architecture is great...the rooms on the first floor have beautiful high ceilings, and all the rooms have ceiling fans, which I think is great. The breakfast is really good, and they have complimentary coffee at the front desk. Also, in the room with the couch and sitting area, the tv is in the middle of the room, so it's hard to see the tv if you're lying in the bed...maybe make it to where it swivels...? Again, I probably will not be returning, unless the company requests this hotel, but I will be sure to tell the owner of our company I don't recommend this place, even though the desk clerks were great. The hotel is lacking in so many other areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in on a Tuesday. Staff was super nice, and we were upgraded to a bigger room on the 1st floor, very convenient(which we paid for) since we would be staying 6 days and 5 nights for business. Everything was perfect until Saturday when we were expected to check out. We told them no we had booked until Sunday. Well obviously someone made an error, so they told us they had only one room left and that every other room was booked and we had to move rooms. (The other guy with the company even had to go get a room at Best Western next door because of this "error." Anyways, the room the put us in was on the 3rd floor and we were in the room about 4 hours before we noticed that the air conditioner didn't work at ALL. The fan was blowing, but no cold air. So I called the front desk, he came up and checked it, and said he had a room available in case something like this happened... Hmmm, so what if someone else's air quit working what would you do? Anyway, he was very nice and moved us a few rooms down. An "upgraded" room he said. We got in the room which we are in now, and it smells so bad it makes me nauseous. The room is bigger because it's a handicapped room, and it smells like a porter...We checked in on a Tuesday. Staff was super nice, and we were upgraded to a bigger room on the 1st floor, very convenient(which we paid for) since we would be staying 6 days and 5 nights for business. Everything was perfect until Saturday when we were expected to check out. We told them no we had booked until Sunday. Well obviously someone made an error, so they told us they had only one room left and that every other room was booked and we had to move rooms. (The other guy with the company even had to go get a room at Best Western next door because of this "error." Anyways, the room the put us in was on the 3rd floor and we were in the room about 4 hours before we noticed that the air conditioner didn't work at ALL. The fan was blowing, but no cold air. So I called the front desk, he came up and checked it, and said he had a room available in case something like this happened... Hmmm, so what if someone else's air quit working what would you do? Anyway, he was very nice and moved us a few rooms down. An "upgraded" room he said. We got in the room which we are in now, and it smells so bad it makes me nauseous. The room is bigger because it's a handicapped room, and it smells like a porter pottie! It's almost midnight now, so I'm not going to bother with it, but I would not come back to this hotel, unless I got the one room we stayed in the majority of our trip which was room 122. Other things are the laundry rooms definitely needs upgrading...one of the washers are broken, and it was too crowed for just 2 washers and 2 dryers...old ones at that...people moving everyone's clothes to rush and wash theirs. And they need a whole new housekeeping crew. The rooms are poorly cleaned...I can't stress that enough. Lazy lazy housekeepers. The duvets are tattered, all of them in every room, and the pool and jacuzzi has a lot of bugs and dirt in the bottom. I will say that the architecture is great...the rooms on the first floor have beautiful high ceilings, and all the rooms have ceiling fans, which I think is great. The breakfast is really good, and they have complimentary coffee at the front desk. Also, in the room with the couch and sitting area, the tv is in the middle of the room, so it's hard to see the tv if you're lying in the bed...maybe make it to where it swivels...? Again, I probably will not be returning, unless the company requests this hotel, but I will be sure to tell the owner of our company I don't recommend this place, even though the desk clerks were great. The hotel is lacking in so many other areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r206692990-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>206692990</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Alvin, TX La Quinta Inn</t>
+  </si>
+  <si>
+    <t>Very nice Hotel, close to everything in town. Close to restaurants, WalMart, CVS, gas stations, close to bank for ATM reasons. Great location, easy to get in and out of.  Oh main highway in town, so easy access for trucks with trailers, etc.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r205880010-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>205880010</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>LaQuinta Alvin</t>
+  </si>
+  <si>
+    <t>The hotel was a pleasant surprise.  It was very nice.  The ambiance and staff was great.  The only thing I would have like better was more of a variety for breakfast and hot tea or cocoa served throughout the day like coffee.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r189687612-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>189687612</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>Comfortable, clean hotel &amp; pet-friendly!</t>
+  </si>
+  <si>
+    <t>We we stayed 2 nights for a local dog agility trial. Despite it being late, the girl at the front desk was kind and got us checked in quickly. We booked through Priceline, but were not treated any differently than a "normal" guest. We had a lovely room on the first floor with high ceilings and a ceiling fan! It was spacious and clean. The bed was comfortable. The room was also located close to the side door so that it was easy to take the dogs in and out. We are usually very happy with La Quinta and this stay did not let us down.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r188247699-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>188247699</t>
+  </si>
+  <si>
+    <t>12/21/2013</t>
+  </si>
+  <si>
+    <t>Thank you Dacey Morgan</t>
+  </si>
+  <si>
+    <t>We had worked a long day &amp; decided to stay here for the night. First of all, we were checked in by Dacey Morgan. What a true, respectful, sweet gentleman. He upgraded us a room with a jaccuzzi, although a little small room,  it was beautiful &amp; very clean. we were so grateful that he really went out of his way to answer all our requests &amp; treat us like Kings &amp; Quenns. The printer was broke but the nice manager printed our copies for us. It was a quite hotel and we will be back! Thank you for such wonderful service</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r186549235-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>186549235</t>
+  </si>
+  <si>
+    <t>12/02/2013</t>
+  </si>
+  <si>
+    <t>Favorite Place</t>
+  </si>
+  <si>
+    <t>Had a very good 4 night stay and will come back again. Breakfast  buffet was great. Hope they extend breakfast one more hour to 10am. Clean rooms and bathroom, very curtious staff willing to go the extra mile to satisfy their customers.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r181203064-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>181203064</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>A new hotel, it was extremely clean.  Fantastic lighting in room.   Our room was by the elevator, but noise was minimal.  Breakfast area was kept clean and food meant to be served hot, was served hot.Would we stay here again?   You bet!</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r172342611-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>172342611</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r171171424-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>171171424</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Alvin stay</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay tremendously!  Everyone was so friendly,attentive and professional.  The rooms were clean, spacious and definately will return and recommend to others.  Oh, the breakfast served everyday was delicious!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r158712357-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>158712357</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Got booted from my room!</t>
+  </si>
+  <si>
+    <t>I got called 2 days prior to staying there and was told that the hotel was over booked and that they no longer had a room for me to stay.  I was part of a large wedding party that is staying in that hotel and they did nothing to accommodate me or help me find another room elsewhere in the area.  I booked my reservation 2 months prior to the event, and had even called the hotel on several occasions to confirm the booking.  Customer service and organization is VERY VERY POOR.  Not only was the guy on the other end of the phone rude, but he wouldn't give me the name of the manager.   I was told that the guests that were staying in the hotel prior to my stay had decided to extend their stay and they couldn't kick them out.  WHAT???!!?!?!?!  They couldn't tell those guests that there wasn't availability for the additional nights?  I was so disgusted.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I got called 2 days prior to staying there and was told that the hotel was over booked and that they no longer had a room for me to stay.  I was part of a large wedding party that is staying in that hotel and they did nothing to accommodate me or help me find another room elsewhere in the area.  I booked my reservation 2 months prior to the event, and had even called the hotel on several occasions to confirm the booking.  Customer service and organization is VERY VERY POOR.  Not only was the guy on the other end of the phone rude, but he wouldn't give me the name of the manager.   I was told that the guests that were staying in the hotel prior to my stay had decided to extend their stay and they couldn't kick them out.  WHAT???!!?!?!?!  They couldn't tell those guests that there wasn't availability for the additional nights?  I was so disgusted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r157975533-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>157975533</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Wedding Guest</t>
+  </si>
+  <si>
+    <t>I was really happy with the price of our 2 night stay and the hotel was quiet and clean. We were on the first floor and didn't hear very much noise from the hallway even though we were just off the lobby!. Breakfast would have been better with more variety in the fruit and less in the bread/sweet roll areas but not so bad that as to send me searching for someplace else. Perfect location on the bypass and 35 made it very accessible from any direction too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r156379786-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>156379786</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>PETS WELCOMED!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was clean, nice, rooms are very roomy, clean, comfortable. I recommend this hotel cause puppys are allowed. Not many hotels are pet friendly the staff was wonderful, nice, and curtious. We had no issues. The breakfast area was nice &amp; clean, and the hot was hot and yummy. Family and I had a great time. Thanks La Quinta we look forward to returning and staying at La Quinta Alvin again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r145699431-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>145699431</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r143203030-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>143203030</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Great stay in spite of our toddler not letting us sleep.</t>
+  </si>
+  <si>
+    <t>Booking the room was great with the help of Jessica, the hotel staff person I spoke with over the phone. She was able to find a room at the last minute in an almost fully booked hotel to best accomodate my pregnant wife, my toddler twins, and me. We had a difficult experience with one of our toddlers who decided to wake up every two hours screaming. Luckily, the room was a nice place to lose sleep in addition to being a good place to sleep when we could. In the morning the breakfast was really good even compared to other La Quinta's we've stayed at. We were able to conduct a business meeting, and had a nice time visiting with other guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Booking the room was great with the help of Jessica, the hotel staff person I spoke with over the phone. She was able to find a room at the last minute in an almost fully booked hotel to best accomodate my pregnant wife, my toddler twins, and me. We had a difficult experience with one of our toddlers who decided to wake up every two hours screaming. Luckily, the room was a nice place to lose sleep in addition to being a good place to sleep when we could. In the morning the breakfast was really good even compared to other La Quinta's we've stayed at. We were able to conduct a business meeting, and had a nice time visiting with other guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r137972492-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>137972492</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r134200418-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>134200418</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r132657206-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>132657206</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>Heavenly</t>
+  </si>
+  <si>
+    <t>What a great surprise checking into this property was.  After leaving the incredibly bad Missouri City LQ hotel (see my post there!) it was indeed heaven for my wife and me (with her little four legged child) to settle into this excellent king room with high ceiling and wonderful remote controlled ceiling fan.Everything about this hotel leaves a pleasant taste in ones mouth....so to speak.  Great staff from front desk to housekeeping to morning food management .  The Alvin LQ has a breakfast layout far beyond the typical....scrambled eggs, bacon/sausage, biscuits and gravy.  The "snacks store" next to the front desk has anything one could want to eat......microwave dinners, numeous condiments, ice cream, candy, etc.We felt safe and secure at all times;  the hallways were always cool and clean smelling.......unlike the sweltering strange smelling corridors in Missouri City.  The bed was excellent and we both enjoyed a great sleep experience for the 3 nites we stayed.  I was working at nearby Alvin CC while the wife enjoyed movies on the large flat panel TV.We obviously will stay here again if in the area and highly recommend this hotel to others......you won't regret it!Marvin CoatsNew Braunfels, TXMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>What a great surprise checking into this property was.  After leaving the incredibly bad Missouri City LQ hotel (see my post there!) it was indeed heaven for my wife and me (with her little four legged child) to settle into this excellent king room with high ceiling and wonderful remote controlled ceiling fan.Everything about this hotel leaves a pleasant taste in ones mouth....so to speak.  Great staff from front desk to housekeeping to morning food management .  The Alvin LQ has a breakfast layout far beyond the typical....scrambled eggs, bacon/sausage, biscuits and gravy.  The "snacks store" next to the front desk has anything one could want to eat......microwave dinners, numeous condiments, ice cream, candy, etc.We felt safe and secure at all times;  the hallways were always cool and clean smelling.......unlike the sweltering strange smelling corridors in Missouri City.  The bed was excellent and we both enjoyed a great sleep experience for the 3 nites we stayed.  I was working at nearby Alvin CC while the wife enjoyed movies on the large flat panel TV.We obviously will stay here again if in the area and highly recommend this hotel to others......you won't regret it!Marvin CoatsNew Braunfels, TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r132523600-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>132523600</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>Great hotel at a great price</t>
+  </si>
+  <si>
+    <t>The hotel is very new and very nicely designed.  My room was large (I had a king bed room), with high ceilings, ceiling fans, wall mounted flat screens, and a fridge/microwave.  They have coffee all day in the lobby, and cookies in the evening (nice touch).  The pool and hot tub were in great shape, the business center had everything you need, and the front desk was kind enough to fax several documents for me at no charge.  Breakfast is above standard with eggs, biscuits, gravy, Texas-shaped waffles, and all the regular items you'd expect.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r119935737-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>119935737</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>I recently booked 10 rooms and meeting space at this property for a Board Meeting. I was working with Daniel and he was always very nice and all requests were accommodated.Great value. Thank you for your help</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r115290012-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>115290012</t>
+  </si>
+  <si>
+    <t>07/12/2011</t>
+  </si>
+  <si>
+    <t>$60 Stolen from Checking Account by La Quinta</t>
+  </si>
+  <si>
+    <t>On Saturday June 11, 2011 I stayed at location 6155 in Alvin, TX.I was over charged $60.  When my wife called to ask why, she was told it was for 2 pillows and 2 towels taken from the room.This was not true - nothing was removed.She was told the security tapes would be reviewed and to call back and talk to the GM.When she called back, the GM Natasha Bhakta refused to talk with my wife. As of today, we have not been refunded the $60.  We have not been contacted.In summary:Based on my experience and the actions of La Quinta, $60 was taken from my account.2 pillows and 2 towels were not removed from the room this should be very clear on your "security tapes".My wife and I have wasted our time with both the location and the corporate office trying to get the stolen money repaid.Nothing - they are thieves plain and simple - avoid this companyMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>On Saturday June 11, 2011 I stayed at location 6155 in Alvin, TX.I was over charged $60.  When my wife called to ask why, she was told it was for 2 pillows and 2 towels taken from the room.This was not true - nothing was removed.She was told the security tapes would be reviewed and to call back and talk to the GM.When she called back, the GM Natasha Bhakta refused to talk with my wife. As of today, we have not been refunded the $60.  We have not been contacted.In summary:Based on my experience and the actions of La Quinta, $60 was taken from my account.2 pillows and 2 towels were not removed from the room this should be very clear on your "security tapes".My wife and I have wasted our time with both the location and the corporate office trying to get the stolen money repaid.Nothing - they are thieves plain and simple - avoid this companyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d1657390-r73168957-La_Quinta_Inn_Suites_Alvin-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>73168957</t>
+  </si>
+  <si>
+    <t>07/31/2010</t>
+  </si>
+  <si>
+    <t>brand new,clean,quiet</t>
+  </si>
+  <si>
+    <t>Nice brand new place,convenient to South Houston. The only problem I encountered was with the air conditioning-it would not stay on for any length of time.  The place is clean and easy to find. I would stay there again,if they can provide a room where the air conditioning works properly.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2024,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2056,5163 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>135</v>
+      </c>
+      <c r="X15" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>135</v>
+      </c>
+      <c r="X16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>194</v>
+      </c>
+      <c r="X25" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>209</v>
+      </c>
+      <c r="X27" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>202</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>202</v>
+      </c>
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>202</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>239</v>
+      </c>
+      <c r="X32" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>243</v>
+      </c>
+      <c r="J33" t="s">
+        <v>244</v>
+      </c>
+      <c r="K33" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>247</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>239</v>
+      </c>
+      <c r="X33" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J34" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" t="s">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s">
+        <v>253</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>254</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s">
+        <v>259</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>260</v>
+      </c>
+      <c r="O35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>261</v>
+      </c>
+      <c r="X35" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J36" t="s">
+        <v>266</v>
+      </c>
+      <c r="K36" t="s">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s">
+        <v>268</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>269</v>
+      </c>
+      <c r="O36" t="s">
+        <v>64</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" t="s">
+        <v>274</v>
+      </c>
+      <c r="L37" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>276</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>283</v>
+      </c>
+      <c r="X38" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" t="s">
+        <v>288</v>
+      </c>
+      <c r="K39" t="s">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s">
+        <v>290</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>291</v>
+      </c>
+      <c r="O39" t="s">
+        <v>64</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>283</v>
+      </c>
+      <c r="X39" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>294</v>
+      </c>
+      <c r="J40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K40" t="s">
+        <v>295</v>
+      </c>
+      <c r="L40" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>291</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>283</v>
+      </c>
+      <c r="X40" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>299</v>
+      </c>
+      <c r="J41" t="s">
+        <v>300</v>
+      </c>
+      <c r="K41" t="s">
+        <v>301</v>
+      </c>
+      <c r="L41" t="s">
+        <v>302</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>291</v>
+      </c>
+      <c r="O41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>303</v>
+      </c>
+      <c r="X41" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>307</v>
+      </c>
+      <c r="J42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s">
+        <v>309</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>291</v>
+      </c>
+      <c r="O42" t="s">
+        <v>64</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>303</v>
+      </c>
+      <c r="X42" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>312</v>
+      </c>
+      <c r="J43" t="s">
+        <v>313</v>
+      </c>
+      <c r="K43" t="s">
+        <v>314</v>
+      </c>
+      <c r="L43" t="s">
+        <v>315</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>316</v>
+      </c>
+      <c r="O43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>303</v>
+      </c>
+      <c r="X43" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>318</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>319</v>
+      </c>
+      <c r="J44" t="s">
+        <v>320</v>
+      </c>
+      <c r="K44" t="s">
+        <v>321</v>
+      </c>
+      <c r="L44" t="s">
+        <v>322</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>316</v>
+      </c>
+      <c r="O44" t="s">
+        <v>64</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>323</v>
+      </c>
+      <c r="X44" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>327</v>
+      </c>
+      <c r="J45" t="s">
+        <v>328</v>
+      </c>
+      <c r="K45" t="s">
+        <v>329</v>
+      </c>
+      <c r="L45" t="s">
+        <v>330</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>331</v>
+      </c>
+      <c r="X45" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>334</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>335</v>
+      </c>
+      <c r="J46" t="s">
+        <v>336</v>
+      </c>
+      <c r="K46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>339</v>
+      </c>
+      <c r="O46" t="s">
+        <v>64</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>340</v>
+      </c>
+      <c r="X46" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>343</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>344</v>
+      </c>
+      <c r="J47" t="s">
+        <v>345</v>
+      </c>
+      <c r="K47" t="s">
+        <v>346</v>
+      </c>
+      <c r="L47" t="s">
+        <v>347</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>348</v>
+      </c>
+      <c r="O47" t="s">
+        <v>64</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>349</v>
+      </c>
+      <c r="X47" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>352</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>353</v>
+      </c>
+      <c r="J48" t="s">
+        <v>354</v>
+      </c>
+      <c r="K48" t="s">
+        <v>355</v>
+      </c>
+      <c r="L48" t="s">
+        <v>356</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>348</v>
+      </c>
+      <c r="O48" t="s">
+        <v>64</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>349</v>
+      </c>
+      <c r="X48" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>358</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>359</v>
+      </c>
+      <c r="J49" t="s">
+        <v>360</v>
+      </c>
+      <c r="K49" t="s">
+        <v>361</v>
+      </c>
+      <c r="L49" t="s">
+        <v>362</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>363</v>
+      </c>
+      <c r="O49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>364</v>
+      </c>
+      <c r="X49" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>367</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>368</v>
+      </c>
+      <c r="J50" t="s">
+        <v>369</v>
+      </c>
+      <c r="K50" t="s">
+        <v>370</v>
+      </c>
+      <c r="L50" t="s">
+        <v>371</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>372</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>373</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>374</v>
+      </c>
+      <c r="J51" t="s">
+        <v>375</v>
+      </c>
+      <c r="K51" t="s">
+        <v>376</v>
+      </c>
+      <c r="L51" t="s">
+        <v>377</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>378</v>
+      </c>
+      <c r="O51" t="s">
+        <v>64</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>379</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s">
+        <v>382</v>
+      </c>
+      <c r="L52" t="s">
+        <v>383</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>384</v>
+      </c>
+      <c r="O52" t="s">
+        <v>64</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>385</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>386</v>
+      </c>
+      <c r="J53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" t="s">
+        <v>388</v>
+      </c>
+      <c r="L53" t="s">
+        <v>389</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>390</v>
+      </c>
+      <c r="O53" t="s">
+        <v>64</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>391</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>392</v>
+      </c>
+      <c r="J54" t="s">
+        <v>393</v>
+      </c>
+      <c r="K54" t="s">
+        <v>394</v>
+      </c>
+      <c r="L54" t="s">
+        <v>395</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>390</v>
+      </c>
+      <c r="O54" t="s">
+        <v>64</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>396</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>397</v>
+      </c>
+      <c r="J55" t="s">
+        <v>398</v>
+      </c>
+      <c r="K55" t="s">
+        <v>399</v>
+      </c>
+      <c r="L55" t="s">
+        <v>400</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>401</v>
+      </c>
+      <c r="O55" t="s">
+        <v>83</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>403</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>404</v>
+      </c>
+      <c r="J56" t="s">
+        <v>405</v>
+      </c>
+      <c r="K56" t="s">
+        <v>406</v>
+      </c>
+      <c r="L56" t="s">
+        <v>407</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>408</v>
+      </c>
+      <c r="O56" t="s">
+        <v>64</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>410</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>411</v>
+      </c>
+      <c r="J57" t="s">
+        <v>412</v>
+      </c>
+      <c r="K57" t="s">
+        <v>413</v>
+      </c>
+      <c r="L57" t="s">
+        <v>414</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>408</v>
+      </c>
+      <c r="O57" t="s">
+        <v>64</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>415</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>416</v>
+      </c>
+      <c r="J58" t="s">
+        <v>417</v>
+      </c>
+      <c r="K58" t="s">
+        <v>418</v>
+      </c>
+      <c r="L58" t="s">
+        <v>419</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>401</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>420</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>421</v>
+      </c>
+      <c r="J59" t="s">
+        <v>422</v>
+      </c>
+      <c r="K59" t="s">
+        <v>423</v>
+      </c>
+      <c r="L59" t="s">
+        <v>424</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>401</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>426</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>427</v>
+      </c>
+      <c r="J60" t="s">
+        <v>428</v>
+      </c>
+      <c r="K60" t="s">
+        <v>429</v>
+      </c>
+      <c r="L60" t="s">
+        <v>430</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>431</v>
+      </c>
+      <c r="O60" t="s">
+        <v>432</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>433</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>434</v>
+      </c>
+      <c r="J61" t="s">
+        <v>435</v>
+      </c>
+      <c r="K61" t="s">
+        <v>436</v>
+      </c>
+      <c r="L61" t="s">
+        <v>437</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>431</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>439</v>
+      </c>
+      <c r="J62" t="s">
+        <v>440</v>
+      </c>
+      <c r="K62" t="s">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s">
+        <v>442</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>443</v>
+      </c>
+      <c r="O62" t="s">
+        <v>79</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>444</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>445</v>
+      </c>
+      <c r="J63" t="s">
+        <v>446</v>
+      </c>
+      <c r="K63" t="s">
+        <v>447</v>
+      </c>
+      <c r="L63" t="s">
+        <v>448</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>443</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>449</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>450</v>
+      </c>
+      <c r="J64" t="s">
+        <v>451</v>
+      </c>
+      <c r="K64" t="s">
+        <v>452</v>
+      </c>
+      <c r="L64" t="s">
+        <v>453</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>454</v>
+      </c>
+      <c r="O64" t="s">
+        <v>64</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>455</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>456</v>
+      </c>
+      <c r="J65" t="s">
+        <v>457</v>
+      </c>
+      <c r="K65" t="s">
+        <v>458</v>
+      </c>
+      <c r="L65" t="s">
+        <v>459</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>460</v>
+      </c>
+      <c r="O65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>461</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>462</v>
+      </c>
+      <c r="J66" t="s">
+        <v>463</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>464</v>
+      </c>
+      <c r="O66" t="s">
+        <v>64</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>465</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>466</v>
+      </c>
+      <c r="J67" t="s">
+        <v>467</v>
+      </c>
+      <c r="K67" t="s">
+        <v>468</v>
+      </c>
+      <c r="L67" t="s">
+        <v>469</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>464</v>
+      </c>
+      <c r="O67" t="s">
+        <v>64</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>470</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>471</v>
+      </c>
+      <c r="J68" t="s">
+        <v>472</v>
+      </c>
+      <c r="K68" t="s">
+        <v>473</v>
+      </c>
+      <c r="L68" t="s">
+        <v>474</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>475</v>
+      </c>
+      <c r="O68" t="s">
+        <v>64</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>477</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>478</v>
+      </c>
+      <c r="J69" t="s">
+        <v>479</v>
+      </c>
+      <c r="K69" t="s">
+        <v>480</v>
+      </c>
+      <c r="L69" t="s">
+        <v>481</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>475</v>
+      </c>
+      <c r="O69" t="s">
+        <v>64</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>482</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>483</v>
+      </c>
+      <c r="J70" t="s">
+        <v>484</v>
+      </c>
+      <c r="K70" t="s">
+        <v>485</v>
+      </c>
+      <c r="L70" t="s">
+        <v>486</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>475</v>
+      </c>
+      <c r="O70" t="s">
+        <v>64</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>487</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>488</v>
+      </c>
+      <c r="J71" t="s">
+        <v>489</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>490</v>
+      </c>
+      <c r="O71" t="s">
+        <v>83</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>491</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>492</v>
+      </c>
+      <c r="J72" t="s">
+        <v>493</v>
+      </c>
+      <c r="K72" t="s">
+        <v>494</v>
+      </c>
+      <c r="L72" t="s">
+        <v>495</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>496</v>
+      </c>
+      <c r="O72" t="s">
+        <v>64</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>498</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>499</v>
+      </c>
+      <c r="J73" t="s">
+        <v>500</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>501</v>
+      </c>
+      <c r="O73" t="s">
+        <v>64</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>502</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>503</v>
+      </c>
+      <c r="J74" t="s">
+        <v>504</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>505</v>
+      </c>
+      <c r="O74" t="s">
+        <v>64</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>506</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>507</v>
+      </c>
+      <c r="J75" t="s">
+        <v>508</v>
+      </c>
+      <c r="K75" t="s">
+        <v>509</v>
+      </c>
+      <c r="L75" t="s">
+        <v>510</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>511</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>513</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>514</v>
+      </c>
+      <c r="J76" t="s">
+        <v>515</v>
+      </c>
+      <c r="K76" t="s">
+        <v>516</v>
+      </c>
+      <c r="L76" t="s">
+        <v>517</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>511</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>518</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>519</v>
+      </c>
+      <c r="J77" t="s">
+        <v>520</v>
+      </c>
+      <c r="K77" t="s">
+        <v>521</v>
+      </c>
+      <c r="L77" t="s">
+        <v>522</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>523</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>524</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>525</v>
+      </c>
+      <c r="J78" t="s">
+        <v>526</v>
+      </c>
+      <c r="K78" t="s">
+        <v>527</v>
+      </c>
+      <c r="L78" t="s">
+        <v>528</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>529</v>
+      </c>
+      <c r="O78" t="s">
+        <v>64</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60099</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>531</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>532</v>
+      </c>
+      <c r="J79" t="s">
+        <v>533</v>
+      </c>
+      <c r="K79" t="s">
+        <v>534</v>
+      </c>
+      <c r="L79" t="s">
+        <v>535</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>536</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
